--- a/Species_counts_createNatIntro_BankLoc.xlsx
+++ b/Species_counts_createNatIntro_BankLoc.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christina.Alba\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christina.Alba\.ssh\HLC_soil_and_veg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84917036-3384-40A5-9537-A3329C9D099D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C89A15-792B-4E88-AB60-A60C9FE4AD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" calcOnSave="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8128" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8625" uniqueCount="149">
   <si>
     <t>sample.bout</t>
   </si>
@@ -478,7 +479,10 @@
     <t>Prop native</t>
   </si>
   <si>
-    <t>Prop Intro</t>
+    <t>(Multiple Items)</t>
+  </si>
+  <si>
+    <t>Prop intro</t>
   </si>
 </sst>
 </file>
@@ -531,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -546,6 +550,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12599,7 +12609,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3201711C-90B6-402A-8F81-7D66E860FBB9}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A5:B51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <location ref="A5:B136" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
@@ -12612,7 +12622,7 @@
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="4">
         <item x="0"/>
-        <item h="1" x="1"/>
+        <item x="1"/>
         <item h="1" x="2"/>
         <item t="default"/>
       </items>
@@ -12626,45 +12636,45 @@
         <item sd="0" x="3"/>
         <item sd="0" x="4"/>
         <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
+        <item x="6"/>
+        <item x="7"/>
         <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
+        <item x="9"/>
         <item sd="0" x="10"/>
         <item sd="0" x="11"/>
         <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
+        <item x="13"/>
         <item sd="0" x="14"/>
         <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
+        <item x="16"/>
         <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
+        <item x="18"/>
         <item sd="0" x="19"/>
         <item sd="0" x="20"/>
         <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
+        <item x="22"/>
         <item sd="0" x="23"/>
         <item sd="0" x="24"/>
         <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
+        <item x="26"/>
         <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
+        <item x="28"/>
         <item sd="0" x="29"/>
         <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
+        <item x="31"/>
+        <item x="32"/>
         <item sd="0" x="33"/>
-        <item sd="0" x="34"/>
+        <item x="34"/>
         <item sd="0" x="35"/>
-        <item sd="0" x="36"/>
+        <item x="36"/>
         <item sd="0" x="37"/>
         <item sd="0" x="38"/>
         <item sd="0" x="39"/>
         <item sd="0" x="40"/>
         <item sd="0" x="41"/>
         <item sd="0" x="42"/>
-        <item sd="0" x="43"/>
-        <item sd="0" x="44"/>
+        <item x="43"/>
+        <item x="44"/>
         <item x="45"/>
         <item t="default"/>
       </items>
@@ -12698,7 +12708,7 @@
     <field x="5"/>
     <field x="7"/>
   </rowFields>
-  <rowItems count="46">
+  <rowItems count="131">
     <i>
       <x/>
     </i>
@@ -12720,14 +12730,62 @@
     <i>
       <x v="6"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
     <i>
       <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
     </i>
     <i>
       <x v="8"/>
     </i>
     <i>
       <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
     </i>
     <i>
       <x v="10"/>
@@ -12741,6 +12799,18 @@
     <i>
       <x v="13"/>
     </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
     <i>
       <x v="14"/>
     </i>
@@ -12750,11 +12820,56 @@
     <i>
       <x v="16"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
     <i>
       <x v="17"/>
     </i>
     <i>
       <x v="18"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
     </i>
     <i>
       <x v="19"/>
@@ -12768,6 +12883,30 @@
     <i>
       <x v="22"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
     <i>
       <x v="23"/>
     </i>
@@ -12780,11 +12919,50 @@
     <i>
       <x v="26"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
     <i>
       <x v="27"/>
     </i>
     <i>
       <x v="28"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
     </i>
     <i>
       <x v="29"/>
@@ -12795,8 +12973,29 @@
     <i>
       <x v="31"/>
     </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
     <i>
       <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
     </i>
     <i>
       <x v="33"/>
@@ -12804,11 +13003,44 @@
     <i>
       <x v="34"/>
     </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
     <i>
       <x v="35"/>
     </i>
     <i>
       <x v="36"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
     </i>
     <i>
       <x v="37"/>
@@ -12831,8 +13063,41 @@
     <i>
       <x v="43"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
     <i>
       <x v="44"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
     </i>
     <i t="grand">
       <x/>
@@ -45537,19 +45802,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D26A659-0C44-480D-812D-001BB5444DD1}">
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:L136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>144</v>
       </c>
@@ -45566,19 +45832,13 @@
         <v>145</v>
       </c>
       <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>146</v>
-      </c>
-      <c r="N1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -45595,31 +45855,25 @@
         <v>15</v>
       </c>
       <c r="I2" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J2" s="7">
         <f>SUM(K2:L2)</f>
         <v>9</v>
       </c>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>9</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -45631,26 +45885,20 @@
         <v>20</v>
       </c>
       <c r="I3" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J3" s="7">
-        <f>SUM(K3:L3)</f>
+        <f t="shared" ref="J3:J66" si="0">SUM(K3:L3)</f>
         <v>4</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>3</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.75</v>
-      </c>
-      <c r="N3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>13</v>
       </c>
@@ -45661,26 +45909,20 @@
         <v>24</v>
       </c>
       <c r="I4" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J4" s="7">
-        <f>SUM(K4:L4)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L4">
-        <v>9</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>140</v>
       </c>
@@ -45697,31 +45939,25 @@
         <v>15</v>
       </c>
       <c r="I5" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J5" s="7">
-        <f>SUM(K5:L5)</f>
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>3</v>
       </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -45733,31 +45969,25 @@
         <v>20</v>
       </c>
       <c r="I6" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J6" s="7">
-        <f>SUM(K6:L6)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>0.5</v>
-      </c>
-      <c r="N6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -45769,26 +45999,20 @@
         <v>24</v>
       </c>
       <c r="I7" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J7" s="7">
-        <f>SUM(K7:L7)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L7">
-        <v>9</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>37</v>
       </c>
@@ -45808,28 +46032,22 @@
         <v>19</v>
       </c>
       <c r="J8" s="7">
-        <f>SUM(K8:L8)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>2</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="2">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -45844,7 +46062,7 @@
         <v>19</v>
       </c>
       <c r="J9" s="7">
-        <f>SUM(K9:L9)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K9">
@@ -45853,19 +46071,13 @@
       <c r="L9">
         <v>2</v>
       </c>
-      <c r="M9">
-        <v>0.5</v>
-      </c>
-      <c r="N9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -45880,28 +46092,22 @@
         <v>19</v>
       </c>
       <c r="J10" s="7">
-        <f>SUM(K10:L10)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L10">
-        <v>13</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -45913,10 +46119,10 @@
         <v>15</v>
       </c>
       <c r="I11" s="6">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J11" s="7">
-        <f>SUM(K11:L11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K11">
@@ -45925,19 +46131,13 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11">
-        <v>0.5</v>
-      </c>
-      <c r="N11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -45949,31 +46149,25 @@
         <v>20</v>
       </c>
       <c r="I12" s="6">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J12" s="7">
-        <f>SUM(K12:L12)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <v>0.2</v>
-      </c>
-      <c r="N12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>59</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -45985,31 +46179,25 @@
         <v>24</v>
       </c>
       <c r="I13" s="6">
+        <v>27</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K13">
         <v>16</v>
       </c>
-      <c r="J13" s="7">
-        <f>SUM(K13:L13)</f>
-        <v>9</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>8</v>
-      </c>
-      <c r="M13">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="N13">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>60</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -46021,10 +46209,10 @@
         <v>15</v>
       </c>
       <c r="I14" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J14" s="7">
-        <f>SUM(K14:L14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14">
@@ -46033,19 +46221,13 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>62</v>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -46057,10 +46239,10 @@
         <v>20</v>
       </c>
       <c r="I15" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15" s="7">
-        <f>SUM(K15:L15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15">
@@ -46069,19 +46251,13 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>64</v>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -46093,31 +46269,25 @@
         <v>24</v>
       </c>
       <c r="I16" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J16" s="7">
-        <f>SUM(K16:L16)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L16">
-        <v>4</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>70</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>49</v>
@@ -46129,10 +46299,10 @@
         <v>15</v>
       </c>
       <c r="I17" s="6">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J17" s="7">
-        <f>SUM(K17:L17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K17">
@@ -46141,19 +46311,13 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>72</v>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>49</v>
@@ -46165,31 +46329,25 @@
         <v>20</v>
       </c>
       <c r="I18" s="6">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J18" s="7">
-        <f>SUM(K18:L18)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>75</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B19" s="2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
         <v>49</v>
@@ -46201,31 +46359,25 @@
         <v>24</v>
       </c>
       <c r="I19" s="6">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J19" s="7">
-        <f>SUM(K19:L19)</f>
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K19">
         <v>10</v>
       </c>
-      <c r="K19">
-        <v>6</v>
-      </c>
       <c r="L19">
-        <v>4</v>
-      </c>
-      <c r="M19">
-        <v>0.6</v>
-      </c>
-      <c r="N19">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>76</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
         <v>49</v>
@@ -46237,31 +46389,25 @@
         <v>15</v>
       </c>
       <c r="I20" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J20" s="7">
-        <f>SUM(K20:L20)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>2</v>
       </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N20">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>49</v>
@@ -46273,31 +46419,25 @@
         <v>20</v>
       </c>
       <c r="I21" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J21" s="7">
-        <f>SUM(K21:L21)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
         <v>3</v>
       </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.75</v>
-      </c>
-      <c r="N21">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>80</v>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B22" s="2">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>49</v>
@@ -46309,31 +46449,25 @@
         <v>24</v>
       </c>
       <c r="I22" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J22" s="7">
-        <f>SUM(K22:L22)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L22">
-        <v>5</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>83</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>49</v>
@@ -46345,10 +46479,10 @@
         <v>15</v>
       </c>
       <c r="I23" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" s="7">
-        <f>SUM(K23:L23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23">
@@ -46357,19 +46491,13 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
         <v>49</v>
@@ -46381,10 +46509,10 @@
         <v>20</v>
       </c>
       <c r="I24" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" s="7">
-        <f>SUM(K24:L24)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24">
@@ -46393,19 +46521,13 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B25" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
         <v>49</v>
@@ -46417,31 +46539,25 @@
         <v>24</v>
       </c>
       <c r="I25" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" s="7">
-        <f>SUM(K25:L25)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>2</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>89</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B26" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>49</v>
@@ -46456,28 +46572,22 @@
         <v>11</v>
       </c>
       <c r="J26" s="7">
-        <f>SUM(K26:L26)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>3</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>91</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B27" s="2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>49</v>
@@ -46492,7 +46602,7 @@
         <v>11</v>
       </c>
       <c r="J27" s="7">
-        <f>SUM(K27:L27)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K27">
@@ -46501,19 +46611,13 @@
       <c r="L27">
         <v>2</v>
       </c>
-      <c r="M27">
-        <v>0.5</v>
-      </c>
-      <c r="N27">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>93</v>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B28" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>49</v>
@@ -46528,28 +46632,22 @@
         <v>11</v>
       </c>
       <c r="J28" s="7">
-        <f>SUM(K28:L28)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>4</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>95</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B29" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>49</v>
@@ -46561,31 +46659,25 @@
         <v>15</v>
       </c>
       <c r="I29" s="6">
+        <v>11</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2">
         <v>9</v>
-      </c>
-      <c r="J29" s="7">
-        <f>SUM(K29:L29)</f>
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="2">
-        <v>8</v>
       </c>
       <c r="F30" t="s">
         <v>49</v>
@@ -46597,31 +46689,25 @@
         <v>20</v>
       </c>
       <c r="I30" s="6">
+        <v>11</v>
+      </c>
+      <c r="J30" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="2">
         <v>9</v>
-      </c>
-      <c r="J30" s="7">
-        <f>SUM(K30:L30)</f>
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="2">
-        <v>18</v>
       </c>
       <c r="F31" t="s">
         <v>49</v>
@@ -46633,31 +46719,25 @@
         <v>24</v>
       </c>
       <c r="I31" s="6">
+        <v>11</v>
+      </c>
+      <c r="J31" s="7">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="J31" s="7">
-        <f>SUM(K31:L31)</f>
-        <v>7</v>
-      </c>
       <c r="K31">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L31">
-        <v>7</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="B32" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F32" t="s">
         <v>63</v>
@@ -46669,31 +46749,25 @@
         <v>15</v>
       </c>
       <c r="I32" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J32" s="7">
-        <f>SUM(K32:L32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
         <v>63</v>
@@ -46705,31 +46779,25 @@
         <v>20</v>
       </c>
       <c r="I33" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J33" s="7">
-        <f>SUM(K33:L33)</f>
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K33">
         <v>3</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
       </c>
       <c r="L33">
         <v>2</v>
       </c>
-      <c r="M33">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N33">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B34" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
         <v>63</v>
@@ -46741,31 +46809,25 @@
         <v>24</v>
       </c>
       <c r="I34" s="6">
+        <v>19</v>
+      </c>
+      <c r="J34" s="7">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="J34" s="7">
-        <f>SUM(K34:L34)</f>
-        <v>9</v>
-      </c>
       <c r="K34">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="L34">
-        <v>8</v>
-      </c>
-      <c r="M34">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="N34">
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>63</v>
@@ -46777,31 +46839,25 @@
         <v>15</v>
       </c>
       <c r="I35" s="6">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J35" s="7">
-        <f>SUM(K35:L35)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
         <v>8</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>108</v>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B36" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>63</v>
@@ -46813,31 +46869,25 @@
         <v>20</v>
       </c>
       <c r="I36" s="6">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J36" s="7">
-        <f>SUM(K36:L36)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
         <v>2</v>
       </c>
-      <c r="L36">
-        <v>9</v>
-      </c>
-      <c r="M36">
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="N36">
-        <v>0.81818181818181823</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>109</v>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B37" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>63</v>
@@ -46849,31 +46899,25 @@
         <v>24</v>
       </c>
       <c r="I37" s="6">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J37" s="7">
-        <f>SUM(K37:L37)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L37">
-        <v>9</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>110</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B38" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F38" t="s">
         <v>63</v>
@@ -46885,31 +46929,25 @@
         <v>15</v>
       </c>
       <c r="I38" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J38" s="7">
-        <f>SUM(K38:L38)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>2</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>112</v>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B39" s="2">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F39" t="s">
         <v>63</v>
@@ -46921,31 +46959,25 @@
         <v>20</v>
       </c>
       <c r="I39" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J39" s="7">
-        <f>SUM(K39:L39)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L39">
-        <v>4</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="B40" s="2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F40" t="s">
         <v>63</v>
@@ -46957,31 +46989,25 @@
         <v>24</v>
       </c>
       <c r="I40" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J40" s="7">
-        <f>SUM(K40:L40)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L40">
-        <v>8</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F41" t="s">
         <v>63</v>
@@ -46993,10 +47019,10 @@
         <v>15</v>
       </c>
       <c r="I41" s="6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J41" s="7">
-        <f>SUM(K41:L41)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K41">
@@ -47005,19 +47031,13 @@
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
         <v>63</v>
@@ -47029,31 +47049,25 @@
         <v>20</v>
       </c>
       <c r="I42" s="6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J42" s="7">
-        <f>SUM(K42:L42)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>118</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B43" s="2">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
         <v>63</v>
@@ -47065,31 +47079,25 @@
         <v>24</v>
       </c>
       <c r="I43" s="6">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J43" s="7">
-        <f>SUM(K43:L43)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L43">
-        <v>13</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>119</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B44" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F44" t="s">
         <v>63</v>
@@ -47101,31 +47109,25 @@
         <v>15</v>
       </c>
       <c r="I44" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J44" s="7">
-        <f>SUM(K44:L44)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44">
-        <v>2</v>
-      </c>
-      <c r="M44">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N44">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>122</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B45" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
         <v>63</v>
@@ -47137,31 +47139,25 @@
         <v>20</v>
       </c>
       <c r="I45" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J45" s="7">
-        <f>SUM(K45:L45)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L45">
-        <v>6</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>124</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B46" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>63</v>
@@ -47173,31 +47169,25 @@
         <v>24</v>
       </c>
       <c r="I46" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J46" s="7">
-        <f>SUM(K46:L46)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L46">
-        <v>6</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>126</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B47" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
         <v>77</v>
@@ -47212,28 +47202,22 @@
         <v>11</v>
       </c>
       <c r="J47" s="7">
-        <f>SUM(K47:L47)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>127</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B48" s="2">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F48" t="s">
         <v>77</v>
@@ -47248,28 +47232,22 @@
         <v>11</v>
       </c>
       <c r="J48" s="7">
-        <f>SUM(K48:L48)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="K48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>128</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B49" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
         <v>77</v>
@@ -47284,28 +47262,22 @@
         <v>11</v>
       </c>
       <c r="J49" s="7">
-        <f>SUM(K49:L49)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L49">
-        <v>6</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F50" t="s">
         <v>77</v>
@@ -47317,31 +47289,25 @@
         <v>15</v>
       </c>
       <c r="I50" s="6">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J50" s="7">
-        <f>SUM(K50:L50)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
         <v>7</v>
       </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="B51" s="2">
-        <v>631</v>
+        <v>28</v>
       </c>
       <c r="F51" t="s">
         <v>77</v>
@@ -47353,26 +47319,26 @@
         <v>20</v>
       </c>
       <c r="I51" s="6">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J51" s="7">
-        <f>SUM(K51:L51)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
         <v>10</v>
       </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="N51">
-        <v>9.0909090909090912E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="2">
+        <v>6</v>
+      </c>
       <c r="F52" t="s">
         <v>77</v>
       </c>
@@ -47383,26 +47349,26 @@
         <v>24</v>
       </c>
       <c r="I52" s="6">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J52" s="7">
-        <f>SUM(K52:L52)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L52">
-        <v>13</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="2">
+        <v>6</v>
+      </c>
       <c r="F53" t="s">
         <v>77</v>
       </c>
@@ -47413,26 +47379,26 @@
         <v>15</v>
       </c>
       <c r="I53" s="6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J53" s="7">
-        <f>SUM(K53:L53)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
         <v>5</v>
       </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="2">
+        <v>8</v>
+      </c>
       <c r="F54" t="s">
         <v>77</v>
       </c>
@@ -47443,26 +47409,26 @@
         <v>20</v>
       </c>
       <c r="I54" s="6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J54" s="7">
-        <f>SUM(K54:L54)</f>
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
         <v>11</v>
       </c>
-      <c r="K54">
-        <v>11</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4</v>
+      </c>
       <c r="F55" t="s">
         <v>77</v>
       </c>
@@ -47473,26 +47439,26 @@
         <v>24</v>
       </c>
       <c r="I55" s="6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J55" s="7">
-        <f>SUM(K55:L55)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="K55">
+        <v>11</v>
+      </c>
+      <c r="L55">
         <v>3</v>
       </c>
-      <c r="L55">
-        <v>9</v>
-      </c>
-      <c r="M55">
-        <v>0.25</v>
-      </c>
-      <c r="N55">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="2">
+        <v>4</v>
+      </c>
       <c r="F56" t="s">
         <v>77</v>
       </c>
@@ -47503,26 +47469,26 @@
         <v>15</v>
       </c>
       <c r="I56" s="6">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J56" s="7">
-        <f>SUM(K56:L56)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="K56">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="2">
+        <v>14</v>
+      </c>
       <c r="F57" t="s">
         <v>77</v>
       </c>
@@ -47533,26 +47499,26 @@
         <v>20</v>
       </c>
       <c r="I57" s="6">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J57" s="7">
-        <f>SUM(K57:L57)</f>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K57">
         <v>4</v>
       </c>
-      <c r="K57">
-        <v>2</v>
-      </c>
       <c r="L57">
-        <v>2</v>
-      </c>
-      <c r="M57">
-        <v>0.5</v>
-      </c>
-      <c r="N57">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="2">
+        <v>12</v>
+      </c>
       <c r="F58" t="s">
         <v>77</v>
       </c>
@@ -47563,26 +47529,26 @@
         <v>24</v>
       </c>
       <c r="I58" s="6">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J58" s="7">
-        <f>SUM(K58:L58)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L58">
-        <v>9</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2</v>
+      </c>
       <c r="F59" t="s">
         <v>77</v>
       </c>
@@ -47593,26 +47559,26 @@
         <v>15</v>
       </c>
       <c r="I59" s="6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J59" s="7">
-        <f>SUM(K59:L59)</f>
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
         <v>3</v>
       </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59">
-        <v>2</v>
-      </c>
-      <c r="M59">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N59">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="2">
+        <v>24</v>
+      </c>
       <c r="F60" t="s">
         <v>77</v>
       </c>
@@ -47623,26 +47589,26 @@
         <v>20</v>
       </c>
       <c r="I60" s="6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J60" s="7">
-        <f>SUM(K60:L60)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="K60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L60">
         <v>3</v>
       </c>
-      <c r="M60">
-        <v>0.5</v>
-      </c>
-      <c r="N60">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="2">
+        <v>22</v>
+      </c>
       <c r="F61" t="s">
         <v>77</v>
       </c>
@@ -47653,26 +47619,26 @@
         <v>24</v>
       </c>
       <c r="I61" s="6">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J61" s="7">
-        <f>SUM(K61:L61)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L61">
-        <v>8</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B62" s="2">
+        <v>25</v>
+      </c>
       <c r="F62" t="s">
         <v>88</v>
       </c>
@@ -47683,26 +47649,26 @@
         <v>15</v>
       </c>
       <c r="I62" s="6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J62" s="7">
-        <f>SUM(K62:L62)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="K62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="2">
+        <v>18</v>
+      </c>
       <c r="F63" t="s">
         <v>88</v>
       </c>
@@ -47713,26 +47679,26 @@
         <v>20</v>
       </c>
       <c r="I63" s="6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J63" s="7">
-        <f>SUM(K63:L63)</f>
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
         <v>6</v>
       </c>
-      <c r="K63">
-        <v>6</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="2">
+        <v>7</v>
+      </c>
       <c r="F64" t="s">
         <v>88</v>
       </c>
@@ -47743,26 +47709,26 @@
         <v>24</v>
       </c>
       <c r="I64" s="6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J64" s="7">
-        <f>SUM(K64:L64)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="K64">
+        <v>7</v>
+      </c>
+      <c r="L64">
         <v>2</v>
       </c>
-      <c r="L64">
-        <v>4</v>
-      </c>
-      <c r="M64">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N64">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="65" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
       <c r="F65" t="s">
         <v>88</v>
       </c>
@@ -47773,26 +47739,26 @@
         <v>15</v>
       </c>
       <c r="I65" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J65" s="7">
-        <f>SUM(K65:L65)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
         <v>5</v>
       </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="N65">
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="66" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="2">
+        <v>6</v>
+      </c>
       <c r="F66" t="s">
         <v>88</v>
       </c>
@@ -47803,26 +47769,26 @@
         <v>20</v>
       </c>
       <c r="I66" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J66" s="7">
-        <f>SUM(K66:L66)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="K66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L66">
         <v>4</v>
       </c>
-      <c r="M66">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="N66">
-        <v>0.44444444444444442</v>
-      </c>
-    </row>
-    <row r="67" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="2">
+        <v>4</v>
+      </c>
       <c r="F67" t="s">
         <v>88</v>
       </c>
@@ -47833,26 +47799,26 @@
         <v>24</v>
       </c>
       <c r="I67" s="6">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J67" s="7">
-        <f>SUM(K67:L67)</f>
+        <f t="shared" ref="J67:J130" si="1">SUM(K67:L67)</f>
         <v>9</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L67">
-        <v>9</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
       <c r="F68" t="s">
         <v>88</v>
       </c>
@@ -47866,23 +47832,23 @@
         <v>16</v>
       </c>
       <c r="J68" s="7">
-        <f>SUM(K68:L68)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="K68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>1</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="6:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="2">
+        <v>3</v>
+      </c>
       <c r="F69" t="s">
         <v>88</v>
       </c>
@@ -47896,23 +47862,23 @@
         <v>16</v>
       </c>
       <c r="J69" s="7">
-        <f>SUM(K69:L69)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
         <v>3</v>
       </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69">
-        <v>0.75</v>
-      </c>
-      <c r="N69">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="70" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="2">
+        <v>7</v>
+      </c>
       <c r="F70" t="s">
         <v>88</v>
       </c>
@@ -47926,23 +47892,23 @@
         <v>16</v>
       </c>
       <c r="J70" s="7">
-        <f>SUM(K70:L70)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B71" s="2">
         <v>7</v>
       </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
         <v>88</v>
       </c>
@@ -47956,23 +47922,23 @@
         <v>10</v>
       </c>
       <c r="J71" s="7">
-        <f>SUM(K71:L71)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L71">
-        <v>2</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="2">
+        <v>10</v>
+      </c>
       <c r="F72" t="s">
         <v>88</v>
       </c>
@@ -47986,7 +47952,7 @@
         <v>10</v>
       </c>
       <c r="J72" s="7">
-        <f>SUM(K72:L72)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K72">
@@ -47995,14 +47961,14 @@
       <c r="L72">
         <v>2</v>
       </c>
-      <c r="M72">
-        <v>0.5</v>
-      </c>
-      <c r="N72">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="73" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="2">
+        <v>8</v>
+      </c>
       <c r="F73" t="s">
         <v>88</v>
       </c>
@@ -48016,23 +47982,23 @@
         <v>10</v>
       </c>
       <c r="J73" s="7">
-        <f>SUM(K73:L73)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L73">
-        <v>4</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="2">
+        <v>22</v>
+      </c>
       <c r="F74" t="s">
         <v>88</v>
       </c>
@@ -48046,7 +48012,7 @@
         <v>8</v>
       </c>
       <c r="J74" s="7">
-        <f>SUM(K74:L74)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K74">
@@ -48055,14 +48021,14 @@
       <c r="L74">
         <v>0</v>
       </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="2">
+        <v>21</v>
+      </c>
       <c r="F75" t="s">
         <v>88</v>
       </c>
@@ -48076,23 +48042,23 @@
         <v>8</v>
       </c>
       <c r="J75" s="7">
-        <f>SUM(K75:L75)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="2">
+        <v>8</v>
+      </c>
       <c r="F76" t="s">
         <v>88</v>
       </c>
@@ -48106,23 +48072,23 @@
         <v>8</v>
       </c>
       <c r="J76" s="7">
-        <f>SUM(K76:L76)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K76">
+        <v>5</v>
+      </c>
+      <c r="L76">
         <v>2</v>
       </c>
-      <c r="L76">
-        <v>5</v>
-      </c>
-      <c r="M76">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="N76">
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="77" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="2">
+        <v>8</v>
+      </c>
       <c r="F77" t="s">
         <v>97</v>
       </c>
@@ -48133,26 +48099,26 @@
         <v>15</v>
       </c>
       <c r="I77" s="6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J77" s="7">
-        <f>SUM(K77:L77)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
         <v>2</v>
       </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="2">
+        <v>5</v>
+      </c>
       <c r="F78" t="s">
         <v>97</v>
       </c>
@@ -48163,26 +48129,26 @@
         <v>20</v>
       </c>
       <c r="I78" s="6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J78" s="7">
-        <f>SUM(K78:L78)</f>
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
         <v>7</v>
       </c>
-      <c r="K78">
-        <v>6</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="N78">
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="79" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="2">
+        <v>5</v>
+      </c>
       <c r="F79" t="s">
         <v>97</v>
       </c>
@@ -48193,26 +48159,26 @@
         <v>24</v>
       </c>
       <c r="I79" s="6">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J79" s="7">
-        <f>SUM(K79:L79)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="K79">
+        <v>8</v>
+      </c>
+      <c r="L79">
         <v>3</v>
       </c>
-      <c r="L79">
-        <v>6</v>
-      </c>
-      <c r="M79">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N79">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="80" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="2">
+        <v>8</v>
+      </c>
       <c r="F80" t="s">
         <v>97</v>
       </c>
@@ -48223,26 +48189,26 @@
         <v>15</v>
       </c>
       <c r="I80" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J80" s="7">
-        <f>SUM(K80:L80)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="K80">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="6:14" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B81" s="2">
+        <v>8</v>
+      </c>
       <c r="F81" t="s">
         <v>97</v>
       </c>
@@ -48253,26 +48219,26 @@
         <v>20</v>
       </c>
       <c r="I81" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J81" s="7">
-        <f>SUM(K81:L81)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
         <v>5</v>
       </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>1</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82" s="2">
+        <v>21</v>
+      </c>
       <c r="F82" t="s">
         <v>97</v>
       </c>
@@ -48283,26 +48249,26 @@
         <v>24</v>
       </c>
       <c r="I82" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J82" s="7">
-        <f>SUM(K82:L82)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L82">
-        <v>8</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83" s="2">
+        <v>16</v>
+      </c>
       <c r="F83" t="s">
         <v>97</v>
       </c>
@@ -48313,26 +48279,26 @@
         <v>15</v>
       </c>
       <c r="I83" s="6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J83" s="7">
-        <f>SUM(K83:L83)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="K83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L83">
-        <v>2</v>
-      </c>
-      <c r="M83">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="N83">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="84" spans="6:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" s="2">
+        <v>6</v>
+      </c>
       <c r="F84" t="s">
         <v>97</v>
       </c>
@@ -48343,26 +48309,26 @@
         <v>20</v>
       </c>
       <c r="I84" s="6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J84" s="7">
-        <f>SUM(K84:L84)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L84">
-        <v>5</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2</v>
+      </c>
       <c r="F85" t="s">
         <v>97</v>
       </c>
@@ -48373,26 +48339,26 @@
         <v>24</v>
       </c>
       <c r="I85" s="6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J85" s="7">
-        <f>SUM(K85:L85)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L85">
-        <v>6</v>
-      </c>
-      <c r="M85">
-        <v>0</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B86" s="2">
+        <v>4</v>
+      </c>
       <c r="F86" t="s">
         <v>97</v>
       </c>
@@ -48403,26 +48369,26 @@
         <v>15</v>
       </c>
       <c r="I86" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J86" s="7">
-        <f>SUM(K86:L86)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
         <v>4</v>
       </c>
-      <c r="L86">
-        <v>2</v>
-      </c>
-      <c r="M86">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N86">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="87" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="2">
+        <v>6</v>
+      </c>
       <c r="F87" t="s">
         <v>97</v>
       </c>
@@ -48433,26 +48399,26 @@
         <v>20</v>
       </c>
       <c r="I87" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J87" s="7">
-        <f>SUM(K87:L87)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L87">
-        <v>4</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" s="2">
+        <v>6</v>
+      </c>
       <c r="F88" t="s">
         <v>97</v>
       </c>
@@ -48463,26 +48429,26 @@
         <v>24</v>
       </c>
       <c r="I88" s="6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J88" s="7">
-        <f>SUM(K88:L88)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K88">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="2">
         <v>4</v>
       </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
         <v>97</v>
       </c>
@@ -48493,26 +48459,26 @@
         <v>15</v>
       </c>
       <c r="I89" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J89" s="7">
-        <f>SUM(K89:L89)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
         <v>6</v>
       </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>1</v>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B90" s="2">
+        <v>4</v>
+      </c>
       <c r="F90" t="s">
         <v>97</v>
       </c>
@@ -48523,26 +48489,26 @@
         <v>20</v>
       </c>
       <c r="I90" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J90" s="7">
-        <f>SUM(K90:L90)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="K90">
+        <v>6</v>
+      </c>
+      <c r="L90">
         <v>2</v>
       </c>
-      <c r="L90">
-        <v>3</v>
-      </c>
-      <c r="M90">
-        <v>0.4</v>
-      </c>
-      <c r="N90">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="91" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" s="2">
+        <v>20</v>
+      </c>
       <c r="F91" t="s">
         <v>97</v>
       </c>
@@ -48553,26 +48519,26 @@
         <v>24</v>
       </c>
       <c r="I91" s="6">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J91" s="7">
-        <f>SUM(K91:L91)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K91">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L91">
-        <v>6</v>
-      </c>
-      <c r="M91">
-        <v>0</v>
-      </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="2">
+        <v>9</v>
+      </c>
       <c r="F92" t="s">
         <v>107</v>
       </c>
@@ -48586,7 +48552,7 @@
         <v>7</v>
       </c>
       <c r="J92" s="7">
-        <f>SUM(K92:L92)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K92">
@@ -48595,14 +48561,14 @@
       <c r="L92">
         <v>0</v>
       </c>
-      <c r="M92">
-        <v>0</v>
-      </c>
-      <c r="N92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="2">
+        <v>15</v>
+      </c>
       <c r="F93" t="s">
         <v>107</v>
       </c>
@@ -48616,7 +48582,7 @@
         <v>7</v>
       </c>
       <c r="J93" s="7">
-        <f>SUM(K93:L93)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K93">
@@ -48625,14 +48591,14 @@
       <c r="L93">
         <v>0</v>
       </c>
-      <c r="M93">
-        <v>0</v>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" s="2">
+        <v>15</v>
+      </c>
       <c r="F94" t="s">
         <v>107</v>
       </c>
@@ -48646,23 +48612,23 @@
         <v>7</v>
       </c>
       <c r="J94" s="7">
-        <f>SUM(K94:L94)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L94">
-        <v>5</v>
-      </c>
-      <c r="M94">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="N94">
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="95" spans="6:14" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="2">
+        <v>15</v>
+      </c>
       <c r="F95" t="s">
         <v>107</v>
       </c>
@@ -48673,10 +48639,10 @@
         <v>15</v>
       </c>
       <c r="I95" s="6">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J95" s="7">
-        <f>SUM(K95:L95)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K95">
@@ -48685,14 +48651,14 @@
       <c r="L95">
         <v>0</v>
       </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B96" s="2">
+        <v>20</v>
+      </c>
       <c r="F96" t="s">
         <v>107</v>
       </c>
@@ -48703,10 +48669,10 @@
         <v>20</v>
       </c>
       <c r="I96" s="6">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J96" s="7">
-        <f>SUM(K96:L96)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K96">
@@ -48715,14 +48681,14 @@
       <c r="L96">
         <v>0</v>
       </c>
-      <c r="M96">
-        <v>0</v>
-      </c>
-      <c r="N96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" s="2">
+        <v>5</v>
+      </c>
       <c r="F97" t="s">
         <v>107</v>
       </c>
@@ -48733,26 +48699,26 @@
         <v>24</v>
       </c>
       <c r="I97" s="6">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J97" s="7">
-        <f>SUM(K97:L97)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="K97">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L97">
-        <v>8</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" s="2">
+        <v>3</v>
+      </c>
       <c r="F98" t="s">
         <v>107</v>
       </c>
@@ -48763,10 +48729,10 @@
         <v>15</v>
       </c>
       <c r="I98" s="6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J98" s="7">
-        <f>SUM(K98:L98)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K98">
@@ -48775,14 +48741,14 @@
       <c r="L98">
         <v>0</v>
       </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
-      <c r="N98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2</v>
+      </c>
       <c r="F99" t="s">
         <v>107</v>
       </c>
@@ -48793,26 +48759,26 @@
         <v>20</v>
       </c>
       <c r="I99" s="6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J99" s="7">
-        <f>SUM(K99:L99)</f>
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K99">
         <v>3</v>
       </c>
-      <c r="K99">
+      <c r="L99">
         <v>2</v>
       </c>
-      <c r="L99">
-        <v>1</v>
-      </c>
-      <c r="M99">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N99">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="100" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100" s="2">
+        <v>15</v>
+      </c>
       <c r="F100" t="s">
         <v>107</v>
       </c>
@@ -48823,26 +48789,26 @@
         <v>24</v>
       </c>
       <c r="I100" s="6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="J100" s="7">
-        <f>SUM(K100:L100)</f>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L100">
-        <v>11</v>
-      </c>
-      <c r="M100">
-        <v>0</v>
-      </c>
-      <c r="N100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B101" s="2">
+        <v>15</v>
+      </c>
       <c r="F101" t="s">
         <v>107</v>
       </c>
@@ -48856,7 +48822,7 @@
         <v>6</v>
       </c>
       <c r="J101" s="7">
-        <f>SUM(K101:L101)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K101">
@@ -48865,14 +48831,14 @@
       <c r="L101">
         <v>0</v>
       </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-      <c r="N101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" s="2">
+        <v>6</v>
+      </c>
       <c r="F102" t="s">
         <v>107</v>
       </c>
@@ -48886,23 +48852,23 @@
         <v>6</v>
       </c>
       <c r="J102" s="7">
-        <f>SUM(K102:L102)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L102">
-        <v>2</v>
-      </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-      <c r="N102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" s="2">
+        <v>12</v>
+      </c>
       <c r="F103" t="s">
         <v>107</v>
       </c>
@@ -48916,23 +48882,23 @@
         <v>6</v>
       </c>
       <c r="J103" s="7">
-        <f>SUM(K103:L103)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L103">
-        <v>4</v>
-      </c>
-      <c r="M103">
-        <v>0</v>
-      </c>
-      <c r="N103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="2">
+        <v>2</v>
+      </c>
       <c r="F104" t="s">
         <v>107</v>
       </c>
@@ -48943,10 +48909,10 @@
         <v>15</v>
       </c>
       <c r="I104" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J104" s="7">
-        <f>SUM(K104:L104)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K104">
@@ -48955,14 +48921,14 @@
       <c r="L104">
         <v>0</v>
       </c>
-      <c r="M104">
-        <v>0</v>
-      </c>
-      <c r="N104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2</v>
+      </c>
       <c r="F105" t="s">
         <v>107</v>
       </c>
@@ -48973,26 +48939,26 @@
         <v>20</v>
       </c>
       <c r="I105" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J105" s="7">
-        <f>SUM(K105:L105)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>2</v>
-      </c>
-      <c r="M105">
-        <v>0</v>
-      </c>
-      <c r="N105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" s="2">
+        <v>10</v>
+      </c>
       <c r="F106" t="s">
         <v>107</v>
       </c>
@@ -49003,26 +48969,26 @@
         <v>24</v>
       </c>
       <c r="I106" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J106" s="7">
-        <f>SUM(K106:L106)</f>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L106">
-        <v>9</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-      <c r="N106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B107" s="2">
+        <v>10</v>
+      </c>
       <c r="F107" t="s">
         <v>114</v>
       </c>
@@ -49033,26 +48999,26 @@
         <v>15</v>
       </c>
       <c r="I107" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J107" s="7">
-        <f>SUM(K107:L107)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107">
-        <v>1</v>
-      </c>
-      <c r="M107">
-        <v>0</v>
-      </c>
-      <c r="N107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="2">
+        <v>14</v>
+      </c>
       <c r="F108" t="s">
         <v>114</v>
       </c>
@@ -49063,26 +49029,26 @@
         <v>20</v>
       </c>
       <c r="I108" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J108" s="7">
-        <f>SUM(K108:L108)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L108">
-        <v>6</v>
-      </c>
-      <c r="M108">
-        <v>0</v>
-      </c>
-      <c r="N108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" s="2">
+        <v>21</v>
+      </c>
       <c r="F109" t="s">
         <v>114</v>
       </c>
@@ -49093,26 +49059,26 @@
         <v>24</v>
       </c>
       <c r="I109" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J109" s="7">
-        <f>SUM(K109:L109)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L109">
-        <v>6</v>
-      </c>
-      <c r="M109">
-        <v>0</v>
-      </c>
-      <c r="N109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" s="2">
+        <v>3</v>
+      </c>
       <c r="F110" t="s">
         <v>114</v>
       </c>
@@ -49123,26 +49089,26 @@
         <v>15</v>
       </c>
       <c r="I110" s="6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J110" s="7">
-        <f>SUM(K110:L110)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" s="2">
         <v>3</v>
       </c>
-      <c r="M110">
-        <v>0</v>
-      </c>
-      <c r="N110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F111" t="s">
         <v>114</v>
       </c>
@@ -49153,26 +49119,26 @@
         <v>20</v>
       </c>
       <c r="I111" s="6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J111" s="7">
-        <f>SUM(K111:L111)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="K111">
+        <v>5</v>
+      </c>
+      <c r="L111">
         <v>4</v>
       </c>
-      <c r="L111">
-        <v>2</v>
-      </c>
-      <c r="M111">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N111">
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="112" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" s="2">
+        <v>9</v>
+      </c>
       <c r="F112" t="s">
         <v>114</v>
       </c>
@@ -49183,26 +49149,26 @@
         <v>24</v>
       </c>
       <c r="I112" s="6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J112" s="7">
-        <f>SUM(K112:L112)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="K112">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L112">
-        <v>6</v>
-      </c>
-      <c r="M112">
-        <v>0</v>
-      </c>
-      <c r="N112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" s="2">
+        <v>5</v>
+      </c>
       <c r="F113" t="s">
         <v>114</v>
       </c>
@@ -49213,26 +49179,26 @@
         <v>15</v>
       </c>
       <c r="I113" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J113" s="7">
-        <f>SUM(K113:L113)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L113">
-        <v>2</v>
-      </c>
-      <c r="M113">
-        <v>0</v>
-      </c>
-      <c r="N113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="2">
+        <v>4</v>
+      </c>
       <c r="F114" t="s">
         <v>114</v>
       </c>
@@ -49243,26 +49209,26 @@
         <v>20</v>
       </c>
       <c r="I114" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J114" s="7">
-        <f>SUM(K114:L114)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="K114">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L114">
-        <v>4</v>
-      </c>
-      <c r="M114">
-        <v>0</v>
-      </c>
-      <c r="N114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115" s="2">
+        <v>9</v>
+      </c>
       <c r="F115" t="s">
         <v>114</v>
       </c>
@@ -49273,26 +49239,26 @@
         <v>24</v>
       </c>
       <c r="I115" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J115" s="7">
-        <f>SUM(K115:L115)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L115">
-        <v>6</v>
-      </c>
-      <c r="M115">
-        <v>0</v>
-      </c>
-      <c r="N115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B116" s="2">
+        <v>9</v>
+      </c>
       <c r="F116" t="s">
         <v>114</v>
       </c>
@@ -49303,26 +49269,26 @@
         <v>15</v>
       </c>
       <c r="I116" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J116" s="7">
-        <f>SUM(K116:L116)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <v>0</v>
-      </c>
-      <c r="M116">
-        <v>1</v>
-      </c>
-      <c r="N116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="6:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="2">
+        <v>15</v>
+      </c>
       <c r="F117" t="s">
         <v>114</v>
       </c>
@@ -49333,26 +49299,26 @@
         <v>20</v>
       </c>
       <c r="I117" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J117" s="7">
-        <f>SUM(K117:L117)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117">
-        <v>1</v>
-      </c>
-      <c r="M117">
-        <v>0</v>
-      </c>
-      <c r="N117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="2">
+        <v>11</v>
+      </c>
       <c r="F118" t="s">
         <v>114</v>
       </c>
@@ -49363,26 +49329,26 @@
         <v>24</v>
       </c>
       <c r="I118" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J118" s="7">
-        <f>SUM(K118:L118)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K118">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L118">
-        <v>5</v>
-      </c>
-      <c r="M118">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="N118">
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="119" spans="6:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="2">
+        <v>19</v>
+      </c>
       <c r="F119" t="s">
         <v>114</v>
       </c>
@@ -49393,10 +49359,10 @@
         <v>15</v>
       </c>
       <c r="I119" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J119" s="7">
-        <f>SUM(K119:L119)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K119">
@@ -49405,14 +49371,14 @@
       <c r="L119">
         <v>1</v>
       </c>
-      <c r="M119">
-        <v>0.5</v>
-      </c>
-      <c r="N119">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="120" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" s="2">
+        <v>14</v>
+      </c>
       <c r="F120" t="s">
         <v>114</v>
       </c>
@@ -49423,26 +49389,26 @@
         <v>20</v>
       </c>
       <c r="I120" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J120" s="7">
-        <f>SUM(K120:L120)</f>
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="K120">
         <v>4</v>
       </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
       <c r="L120">
-        <v>4</v>
-      </c>
-      <c r="M120">
-        <v>0</v>
-      </c>
-      <c r="N120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="6:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B121" s="2">
+        <v>7</v>
+      </c>
       <c r="F121" t="s">
         <v>114</v>
       </c>
@@ -49453,26 +49419,26 @@
         <v>24</v>
       </c>
       <c r="I121" s="6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J121" s="7">
-        <f>SUM(K121:L121)</f>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L121">
-        <v>7</v>
-      </c>
-      <c r="M121">
-        <v>0</v>
-      </c>
-      <c r="N121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B122" s="2">
+        <v>11</v>
+      </c>
       <c r="F122" t="s">
         <v>123</v>
       </c>
@@ -49483,26 +49449,26 @@
         <v>15</v>
       </c>
       <c r="I122" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J122" s="7">
-        <f>SUM(K122:L122)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L122">
-        <v>2</v>
-      </c>
-      <c r="M122">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N122">
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="123" spans="6:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B123" s="2">
+        <v>12</v>
+      </c>
       <c r="F123" t="s">
         <v>123</v>
       </c>
@@ -49513,26 +49479,26 @@
         <v>20</v>
       </c>
       <c r="I123" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J123" s="7">
-        <f>SUM(K123:L123)</f>
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K123">
         <v>2</v>
       </c>
-      <c r="K123">
-        <v>0</v>
-      </c>
       <c r="L123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="2">
         <v>2</v>
       </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="N123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F124" t="s">
         <v>123</v>
       </c>
@@ -49543,26 +49509,26 @@
         <v>24</v>
       </c>
       <c r="I124" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J124" s="7">
-        <f>SUM(K124:L124)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L124">
-        <v>6</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="N124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" s="2">
+        <v>2</v>
+      </c>
       <c r="F125" t="s">
         <v>123</v>
       </c>
@@ -49576,23 +49542,23 @@
         <v>7</v>
       </c>
       <c r="J125" s="7">
-        <f>SUM(K125:L125)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125">
-        <v>1</v>
-      </c>
-      <c r="M125">
-        <v>0</v>
-      </c>
-      <c r="N125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" s="2">
+        <v>3</v>
+      </c>
       <c r="F126" t="s">
         <v>123</v>
       </c>
@@ -49606,23 +49572,23 @@
         <v>7</v>
       </c>
       <c r="J126" s="7">
-        <f>SUM(K126:L126)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126">
-        <v>1</v>
-      </c>
-      <c r="M126">
-        <v>0</v>
-      </c>
-      <c r="N126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B127" s="2">
+        <v>2</v>
+      </c>
       <c r="F127" t="s">
         <v>123</v>
       </c>
@@ -49636,23 +49602,23 @@
         <v>7</v>
       </c>
       <c r="J127" s="7">
-        <f>SUM(K127:L127)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L127">
-        <v>5</v>
-      </c>
-      <c r="M127">
-        <v>0</v>
-      </c>
-      <c r="N127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128" s="2">
+        <v>1</v>
+      </c>
       <c r="F128" t="s">
         <v>123</v>
       </c>
@@ -49666,23 +49632,23 @@
         <v>11</v>
       </c>
       <c r="J128" s="7">
-        <f>SUM(K128:L128)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L128">
-        <v>2</v>
-      </c>
-      <c r="M128">
-        <v>0</v>
-      </c>
-      <c r="N128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129" s="2">
+        <v>7</v>
+      </c>
       <c r="F129" t="s">
         <v>123</v>
       </c>
@@ -49696,23 +49662,23 @@
         <v>11</v>
       </c>
       <c r="J129" s="7">
-        <f>SUM(K129:L129)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L129">
-        <v>3</v>
-      </c>
-      <c r="M129">
-        <v>0</v>
-      </c>
-      <c r="N129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B130" s="2">
+        <v>7</v>
+      </c>
       <c r="F130" t="s">
         <v>123</v>
       </c>
@@ -49726,23 +49692,23 @@
         <v>11</v>
       </c>
       <c r="J130" s="7">
-        <f>SUM(K130:L130)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L130">
-        <v>6</v>
-      </c>
-      <c r="M130">
-        <v>0</v>
-      </c>
-      <c r="N130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2">
+        <v>7</v>
+      </c>
       <c r="F131" t="s">
         <v>123</v>
       </c>
@@ -49753,26 +49719,26 @@
         <v>15</v>
       </c>
       <c r="I131" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J131" s="7">
-        <f>SUM(K131:L131)</f>
+        <f t="shared" ref="J131:J136" si="2">SUM(K131:L131)</f>
         <v>2</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L131">
-        <v>2</v>
-      </c>
-      <c r="M131">
-        <v>0</v>
-      </c>
-      <c r="N131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="2">
+        <v>1</v>
+      </c>
       <c r="F132" t="s">
         <v>123</v>
       </c>
@@ -49783,26 +49749,26 @@
         <v>20</v>
       </c>
       <c r="I132" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J132" s="7">
-        <f>SUM(K132:L132)</f>
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K132">
         <v>2</v>
       </c>
-      <c r="K132">
-        <v>1</v>
-      </c>
       <c r="L132">
         <v>1</v>
       </c>
-      <c r="M132">
-        <v>0.5</v>
-      </c>
-      <c r="N132">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="133" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B133" s="2">
+        <v>1</v>
+      </c>
       <c r="F133" t="s">
         <v>123</v>
       </c>
@@ -49813,26 +49779,26 @@
         <v>24</v>
       </c>
       <c r="I133" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J133" s="7">
-        <f>SUM(K133:L133)</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="K133">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L133">
-        <v>5</v>
-      </c>
-      <c r="M133">
-        <v>0</v>
-      </c>
-      <c r="N133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="6:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B134" s="2">
+        <v>6</v>
+      </c>
       <c r="F134" t="s">
         <v>123</v>
       </c>
@@ -49843,26 +49809,26 @@
         <v>15</v>
       </c>
       <c r="I134" s="6">
+        <v>7</v>
+      </c>
+      <c r="J134" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B135" s="2">
         <v>6</v>
       </c>
-      <c r="J134" s="7">
-        <f>SUM(K134:L134)</f>
-        <v>1</v>
-      </c>
-      <c r="K134">
-        <v>0</v>
-      </c>
-      <c r="L134">
-        <v>1</v>
-      </c>
-      <c r="M134">
-        <v>0</v>
-      </c>
-      <c r="N134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F135" t="s">
         <v>123</v>
       </c>
@@ -49873,10 +49839,10 @@
         <v>20</v>
       </c>
       <c r="I135" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J135" s="7">
-        <f>SUM(K135:L135)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K135">
@@ -49885,14 +49851,14 @@
       <c r="L135">
         <v>0</v>
       </c>
-      <c r="M135">
-        <v>0</v>
-      </c>
-      <c r="N135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="6:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B136" s="2">
+        <v>791</v>
+      </c>
       <c r="F136" t="s">
         <v>123</v>
       </c>
@@ -49903,23 +49869,17 @@
         <v>24</v>
       </c>
       <c r="I136" s="6">
+        <v>7</v>
+      </c>
+      <c r="J136" s="7">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="J136" s="7">
-        <f>SUM(K136:L136)</f>
-        <v>5</v>
-      </c>
       <c r="K136">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L136">
-        <v>5</v>
-      </c>
-      <c r="M136">
-        <v>0</v>
-      </c>
-      <c r="N136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -49929,4 +49889,3967 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64ECBDD-7F1C-4C8A-86AA-5C62F387FF96}">
+  <dimension ref="A1:I136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>0.25</v>
+      </c>
+      <c r="I3">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>0.25</v>
+      </c>
+      <c r="I5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I6">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0.5</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I12">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="I13">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I19">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I20">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>0.4</v>
+      </c>
+      <c r="I21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>0.5</v>
+      </c>
+      <c r="I27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>19</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>0.6</v>
+      </c>
+      <c r="I33">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>19</v>
+      </c>
+      <c r="E34">
+        <v>13</v>
+      </c>
+      <c r="F34">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="I34">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>8</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>32</v>
+      </c>
+      <c r="E36">
+        <v>12</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I36">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37">
+        <v>32</v>
+      </c>
+      <c r="E37">
+        <v>12</v>
+      </c>
+      <c r="F37">
+        <v>12</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>16</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40">
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>19</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>19</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43">
+        <v>19</v>
+      </c>
+      <c r="E43">
+        <v>18</v>
+      </c>
+      <c r="F43">
+        <v>18</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I44">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>11</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>11</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>78</v>
+      </c>
+      <c r="C48" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>11</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>0.375</v>
+      </c>
+      <c r="I48">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49">
+        <v>11</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="I49">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50">
+        <v>7</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>7</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="E51">
+        <v>11</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="I51">
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52">
+        <v>40</v>
+      </c>
+      <c r="E52">
+        <v>22</v>
+      </c>
+      <c r="F52">
+        <v>22</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>31</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54">
+        <v>31</v>
+      </c>
+      <c r="E54">
+        <v>12</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I54">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55">
+        <v>31</v>
+      </c>
+      <c r="E55">
+        <v>14</v>
+      </c>
+      <c r="F55">
+        <v>11</v>
+      </c>
+      <c r="G55">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="I55">
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>28</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>6</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57">
+        <v>28</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <v>0.5</v>
+      </c>
+      <c r="I57">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58">
+        <v>28</v>
+      </c>
+      <c r="E58">
+        <v>14</v>
+      </c>
+      <c r="F58">
+        <v>12</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I58">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>24</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>0.4</v>
+      </c>
+      <c r="I59">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <v>24</v>
+      </c>
+      <c r="E60">
+        <v>7</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I60">
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61">
+        <v>24</v>
+      </c>
+      <c r="E61">
+        <v>12</v>
+      </c>
+      <c r="F61">
+        <v>12</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <v>22</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>6</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <v>22</v>
+      </c>
+      <c r="E63">
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>6</v>
+      </c>
+      <c r="H63">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I63">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64">
+        <v>22</v>
+      </c>
+      <c r="E64">
+        <v>9</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="I64">
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65">
+        <v>25</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I65">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66">
+        <v>25</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>6</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>0.6</v>
+      </c>
+      <c r="I66">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67">
+        <v>25</v>
+      </c>
+      <c r="E67">
+        <v>9</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <v>16</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>6</v>
+      </c>
+      <c r="H68">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I68">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69">
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69">
+        <v>0.25</v>
+      </c>
+      <c r="I69">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>7</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>0.5</v>
+      </c>
+      <c r="I72">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74">
+        <v>8</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75">
+        <v>8</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I76">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77">
+        <v>22</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78">
+        <v>22</v>
+      </c>
+      <c r="E78">
+        <v>9</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>7</v>
+      </c>
+      <c r="H78">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="I78">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79">
+        <v>22</v>
+      </c>
+      <c r="E79">
+        <v>11</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="I79">
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <v>21</v>
+      </c>
+      <c r="E80">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>8</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" t="s">
+        <v>99</v>
+      </c>
+      <c r="C81" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <v>21</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>5</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82">
+        <v>21</v>
+      </c>
+      <c r="E82">
+        <v>8</v>
+      </c>
+      <c r="F82">
+        <v>8</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83">
+        <v>21</v>
+      </c>
+      <c r="E83">
+        <v>9</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>6</v>
+      </c>
+      <c r="H83">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I83">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84">
+        <v>21</v>
+      </c>
+      <c r="E84">
+        <v>6</v>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85">
+        <v>21</v>
+      </c>
+      <c r="E85">
+        <v>6</v>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86">
+        <v>16</v>
+      </c>
+      <c r="E86">
+        <v>6</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>4</v>
+      </c>
+      <c r="H86">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I86">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87">
+        <v>16</v>
+      </c>
+      <c r="E87">
+        <v>6</v>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88">
+        <v>16</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>4</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89">
+        <v>20</v>
+      </c>
+      <c r="E89">
+        <v>6</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>6</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90" t="s">
+        <v>20</v>
+      </c>
+      <c r="D90">
+        <v>20</v>
+      </c>
+      <c r="E90">
+        <v>8</v>
+      </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>0.75</v>
+      </c>
+      <c r="I90">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91">
+        <v>20</v>
+      </c>
+      <c r="E91">
+        <v>6</v>
+      </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92">
+        <v>7</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93">
+        <v>7</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94">
+        <v>7</v>
+      </c>
+      <c r="E94">
+        <v>9</v>
+      </c>
+      <c r="F94">
+        <v>6</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I94">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>107</v>
+      </c>
+      <c r="B95" t="s">
+        <v>109</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95">
+        <v>15</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" t="s">
+        <v>20</v>
+      </c>
+      <c r="D96">
+        <v>15</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B97" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97">
+        <v>15</v>
+      </c>
+      <c r="E97">
+        <v>15</v>
+      </c>
+      <c r="F97">
+        <v>15</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98">
+        <v>20</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99">
+        <v>20</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+      <c r="F99">
+        <v>3</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>0.6</v>
+      </c>
+      <c r="I99">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100">
+        <v>20</v>
+      </c>
+      <c r="E100">
+        <v>15</v>
+      </c>
+      <c r="F100">
+        <v>15</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="s">
+        <v>112</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" t="s">
+        <v>112</v>
+      </c>
+      <c r="C103" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103">
+        <v>6</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="s">
+        <v>113</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104">
+        <v>12</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>113</v>
+      </c>
+      <c r="C105" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105">
+        <v>12</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106">
+        <v>12</v>
+      </c>
+      <c r="E106">
+        <v>10</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107">
+        <v>14</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108">
+        <v>14</v>
+      </c>
+      <c r="E108">
+        <v>7</v>
+      </c>
+      <c r="F108">
+        <v>7</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109">
+        <v>14</v>
+      </c>
+      <c r="E109">
+        <v>6</v>
+      </c>
+      <c r="F109">
+        <v>6</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110">
+        <v>21</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <v>3</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>114</v>
+      </c>
+      <c r="B111" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" t="s">
+        <v>20</v>
+      </c>
+      <c r="D111">
+        <v>21</v>
+      </c>
+      <c r="E111">
+        <v>9</v>
+      </c>
+      <c r="F111">
+        <v>5</v>
+      </c>
+      <c r="G111">
+        <v>4</v>
+      </c>
+      <c r="H111">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I111">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112">
+        <v>21</v>
+      </c>
+      <c r="E112">
+        <v>9</v>
+      </c>
+      <c r="F112">
+        <v>9</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>118</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113">
+        <v>15</v>
+      </c>
+      <c r="E113">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <v>3</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114">
+        <v>15</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+      <c r="F114">
+        <v>5</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115">
+        <v>15</v>
+      </c>
+      <c r="E115">
+        <v>7</v>
+      </c>
+      <c r="F115">
+        <v>7</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116">
+        <v>11</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+      <c r="B117" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117">
+        <v>11</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>114</v>
+      </c>
+      <c r="B118" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118">
+        <v>11</v>
+      </c>
+      <c r="E118">
+        <v>6</v>
+      </c>
+      <c r="F118">
+        <v>5</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I118">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>114</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119">
+        <v>19</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>0.5</v>
+      </c>
+      <c r="I119">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>114</v>
+      </c>
+      <c r="B120" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120">
+        <v>19</v>
+      </c>
+      <c r="E120">
+        <v>5</v>
+      </c>
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>0.8</v>
+      </c>
+      <c r="I120">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>114</v>
+      </c>
+      <c r="B121" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121">
+        <v>19</v>
+      </c>
+      <c r="E121">
+        <v>12</v>
+      </c>
+      <c r="F121">
+        <v>12</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122">
+        <v>14</v>
+      </c>
+      <c r="E122">
+        <v>5</v>
+      </c>
+      <c r="F122">
+        <v>4</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>0.8</v>
+      </c>
+      <c r="I122">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123">
+        <v>14</v>
+      </c>
+      <c r="E123">
+        <v>3</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I123">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124">
+        <v>14</v>
+      </c>
+      <c r="E124">
+        <v>6</v>
+      </c>
+      <c r="F124">
+        <v>6</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125">
+        <v>7</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>123</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126">
+        <v>7</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>123</v>
+      </c>
+      <c r="B127" t="s">
+        <v>126</v>
+      </c>
+      <c r="C127" t="s">
+        <v>24</v>
+      </c>
+      <c r="D127">
+        <v>7</v>
+      </c>
+      <c r="E127">
+        <v>5</v>
+      </c>
+      <c r="F127">
+        <v>5</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>123</v>
+      </c>
+      <c r="B128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128">
+        <v>11</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>123</v>
+      </c>
+      <c r="B129" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129">
+        <v>11</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="F129">
+        <v>3</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>123</v>
+      </c>
+      <c r="B130" t="s">
+        <v>127</v>
+      </c>
+      <c r="C130" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130">
+        <v>11</v>
+      </c>
+      <c r="E130">
+        <v>6</v>
+      </c>
+      <c r="F130">
+        <v>6</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>123</v>
+      </c>
+      <c r="B131" t="s">
+        <v>128</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131">
+        <v>12</v>
+      </c>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>123</v>
+      </c>
+      <c r="B132" t="s">
+        <v>128</v>
+      </c>
+      <c r="C132" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132">
+        <v>12</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I132">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>123</v>
+      </c>
+      <c r="B133" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133">
+        <v>12</v>
+      </c>
+      <c r="E133">
+        <v>7</v>
+      </c>
+      <c r="F133">
+        <v>7</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>123</v>
+      </c>
+      <c r="B134" t="s">
+        <v>129</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134">
+        <v>7</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>123</v>
+      </c>
+      <c r="B135" t="s">
+        <v>129</v>
+      </c>
+      <c r="C135" t="s">
+        <v>20</v>
+      </c>
+      <c r="D135">
+        <v>7</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>123</v>
+      </c>
+      <c r="B136" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" t="s">
+        <v>24</v>
+      </c>
+      <c r="D136">
+        <v>7</v>
+      </c>
+      <c r="E136">
+        <v>6</v>
+      </c>
+      <c r="F136">
+        <v>6</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I137">
+    <sortCondition ref="B2:B137"/>
+    <sortCondition ref="C2:C137"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>